--- a/products/layer_list_v2.1.xlsx
+++ b/products/layer_list_v2.1.xlsx
@@ -2479,8 +2479,8 @@
   </sheetPr>
   <dimension ref="A1:M1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/products/layer_list_v2.1.xlsx
+++ b/products/layer_list_v2.1.xlsx
@@ -2479,27 +2479,27 @@
   </sheetPr>
   <dimension ref="A1:M1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="1"/>
-    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="73.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="39.6640625" customWidth="1"/>
-    <col min="11" max="11" width="32.88671875" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" customWidth="1"/>
-    <col min="13" max="13" width="26.109375" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1"/>
+    <col min="7" max="7" width="19.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>4</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>5</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>6</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>7</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>8</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>9</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>10</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>11</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>12</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>13</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>14</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>15</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>16</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>17</v>
       </c>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>18</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>19</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>20</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>21</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>22</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>23</v>
       </c>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>24</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>25</v>
       </c>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>26</v>
       </c>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>27</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>28</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>29</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>30</v>
       </c>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>31</v>
       </c>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>32</v>
       </c>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>33</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>34</v>
       </c>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>35</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>36</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>37</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>38</v>
       </c>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>39</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>40</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>41</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>42</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>43</v>
       </c>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>44</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>45</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>46</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>47</v>
       </c>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>48</v>
       </c>
@@ -6562,3616 +6562,3615 @@
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H102" s="6"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H103" s="6"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H104" s="6"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H105" s="6"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H106" s="6"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
     </row>
-    <row r="202" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
     </row>
-    <row r="203" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
     </row>
-    <row r="204" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
     </row>
-    <row r="205" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
     </row>
-    <row r="206" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
     </row>
-    <row r="207" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
     </row>
-    <row r="208" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
     </row>
-    <row r="210" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
     </row>
-    <row r="211" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
     </row>
-    <row r="216" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
     </row>
-    <row r="217" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
     </row>
-    <row r="218" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H218" s="6"/>
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
     </row>
-    <row r="220" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
     </row>
-    <row r="221" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
     </row>
-    <row r="222" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
     </row>
-    <row r="223" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H223" s="6"/>
       <c r="I223" s="6"/>
     </row>
-    <row r="224" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
     </row>
-    <row r="225" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
     </row>
-    <row r="226" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
     </row>
-    <row r="227" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
     </row>
-    <row r="228" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
     </row>
-    <row r="229" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
     </row>
-    <row r="230" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
     </row>
-    <row r="233" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
     </row>
-    <row r="241" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
     </row>
-    <row r="242" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
     </row>
-    <row r="243" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H244" s="6"/>
       <c r="I244" s="6"/>
     </row>
-    <row r="245" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
     </row>
-    <row r="246" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
     </row>
-    <row r="247" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
     </row>
-    <row r="248" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
     </row>
-    <row r="249" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
     </row>
-    <row r="250" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
     </row>
-    <row r="251" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
     </row>
-    <row r="252" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
     </row>
-    <row r="253" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H253" s="6"/>
       <c r="I253" s="6"/>
     </row>
-    <row r="254" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
     </row>
-    <row r="255" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
     </row>
-    <row r="256" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
     </row>
-    <row r="257" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
     </row>
-    <row r="258" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
     </row>
-    <row r="259" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
     </row>
-    <row r="260" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
     </row>
-    <row r="261" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H261" s="6"/>
       <c r="I261" s="6"/>
     </row>
-    <row r="262" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
     </row>
-    <row r="263" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
     </row>
-    <row r="264" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
     </row>
-    <row r="265" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
     </row>
-    <row r="266" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
     </row>
-    <row r="267" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
     </row>
-    <row r="268" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
     </row>
-    <row r="269" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
     </row>
-    <row r="270" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
     </row>
-    <row r="271" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
     </row>
-    <row r="272" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
     </row>
-    <row r="273" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
     </row>
-    <row r="274" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H274" s="6"/>
       <c r="I274" s="6"/>
     </row>
-    <row r="275" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
     </row>
-    <row r="276" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
     </row>
-    <row r="277" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
     </row>
-    <row r="278" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
     </row>
-    <row r="279" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
     </row>
-    <row r="280" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
     </row>
-    <row r="281" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
     </row>
-    <row r="282" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
     </row>
-    <row r="283" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
     </row>
-    <row r="284" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
     </row>
-    <row r="285" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
     </row>
-    <row r="286" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
     </row>
-    <row r="287" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
     </row>
-    <row r="288" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
     </row>
-    <row r="289" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
     </row>
-    <row r="290" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
     </row>
-    <row r="291" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
     </row>
-    <row r="292" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
     </row>
-    <row r="293" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
     </row>
-    <row r="294" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
     </row>
-    <row r="295" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
     </row>
-    <row r="296" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
     </row>
-    <row r="297" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
     </row>
-    <row r="298" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
     </row>
-    <row r="299" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
     </row>
-    <row r="300" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
     </row>
-    <row r="301" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
     </row>
-    <row r="305" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
     </row>
-    <row r="306" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
     </row>
-    <row r="307" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
     </row>
-    <row r="308" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
     </row>
-    <row r="309" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
     </row>
-    <row r="310" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
     </row>
-    <row r="311" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
     </row>
-    <row r="312" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
     </row>
-    <row r="313" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
     </row>
-    <row r="314" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
     </row>
-    <row r="315" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
     </row>
-    <row r="316" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
     </row>
-    <row r="317" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
     </row>
-    <row r="318" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
     </row>
-    <row r="319" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
     </row>
-    <row r="320" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
     </row>
-    <row r="321" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H321" s="6"/>
       <c r="I321" s="6"/>
     </row>
-    <row r="322" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
     </row>
-    <row r="323" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
     </row>
-    <row r="324" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
     </row>
-    <row r="325" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
     </row>
-    <row r="326" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
     </row>
-    <row r="327" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
     </row>
-    <row r="328" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
     </row>
-    <row r="329" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
     </row>
-    <row r="330" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
     </row>
-    <row r="331" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
     </row>
-    <row r="332" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
     </row>
-    <row r="333" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
     </row>
-    <row r="334" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
     </row>
-    <row r="335" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
     </row>
-    <row r="336" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
     </row>
-    <row r="337" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
     </row>
-    <row r="338" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
     </row>
-    <row r="339" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
     </row>
-    <row r="340" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
     </row>
-    <row r="341" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
     </row>
-    <row r="342" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
     </row>
-    <row r="343" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
     </row>
-    <row r="344" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
     </row>
-    <row r="345" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
     </row>
-    <row r="346" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
     </row>
-    <row r="347" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
     </row>
-    <row r="348" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
     </row>
-    <row r="349" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
     </row>
-    <row r="350" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
     </row>
-    <row r="351" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
     </row>
-    <row r="352" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
     </row>
-    <row r="353" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
     </row>
-    <row r="354" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
     </row>
-    <row r="355" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
     </row>
-    <row r="356" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
     </row>
-    <row r="357" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
     </row>
-    <row r="358" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
     </row>
-    <row r="359" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H359" s="6"/>
       <c r="I359" s="6"/>
     </row>
-    <row r="360" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
     </row>
-    <row r="361" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
     </row>
-    <row r="362" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
     </row>
-    <row r="363" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
     </row>
-    <row r="364" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
     </row>
-    <row r="365" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
     </row>
-    <row r="366" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H366" s="6"/>
       <c r="I366" s="6"/>
     </row>
-    <row r="367" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H367" s="6"/>
       <c r="I367" s="6"/>
     </row>
-    <row r="368" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H368" s="6"/>
       <c r="I368" s="6"/>
     </row>
-    <row r="369" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H369" s="6"/>
       <c r="I369" s="6"/>
     </row>
-    <row r="370" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H370" s="6"/>
       <c r="I370" s="6"/>
     </row>
-    <row r="371" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H371" s="6"/>
       <c r="I371" s="6"/>
     </row>
-    <row r="372" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H372" s="6"/>
       <c r="I372" s="6"/>
     </row>
-    <row r="373" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H373" s="6"/>
       <c r="I373" s="6"/>
     </row>
-    <row r="374" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
     </row>
-    <row r="375" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H375" s="6"/>
       <c r="I375" s="6"/>
     </row>
-    <row r="376" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H376" s="6"/>
       <c r="I376" s="6"/>
     </row>
-    <row r="377" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H377" s="6"/>
       <c r="I377" s="6"/>
     </row>
-    <row r="378" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
     </row>
-    <row r="379" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H379" s="6"/>
       <c r="I379" s="6"/>
     </row>
-    <row r="380" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H380" s="6"/>
       <c r="I380" s="6"/>
     </row>
-    <row r="381" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H381" s="6"/>
       <c r="I381" s="6"/>
     </row>
-    <row r="382" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H382" s="6"/>
       <c r="I382" s="6"/>
     </row>
-    <row r="383" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H383" s="6"/>
       <c r="I383" s="6"/>
     </row>
-    <row r="384" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H384" s="6"/>
       <c r="I384" s="6"/>
     </row>
-    <row r="385" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H385" s="6"/>
       <c r="I385" s="6"/>
     </row>
-    <row r="386" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H386" s="6"/>
       <c r="I386" s="6"/>
     </row>
-    <row r="387" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
     </row>
-    <row r="388" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H388" s="6"/>
       <c r="I388" s="6"/>
     </row>
-    <row r="389" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H389" s="6"/>
       <c r="I389" s="6"/>
     </row>
-    <row r="390" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H390" s="6"/>
       <c r="I390" s="6"/>
     </row>
-    <row r="391" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H391" s="6"/>
       <c r="I391" s="6"/>
     </row>
-    <row r="392" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H392" s="6"/>
       <c r="I392" s="6"/>
     </row>
-    <row r="393" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H393" s="6"/>
       <c r="I393" s="6"/>
     </row>
-    <row r="394" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H394" s="6"/>
       <c r="I394" s="6"/>
     </row>
-    <row r="395" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H395" s="6"/>
       <c r="I395" s="6"/>
     </row>
-    <row r="396" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H396" s="6"/>
       <c r="I396" s="6"/>
     </row>
-    <row r="397" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H397" s="6"/>
       <c r="I397" s="6"/>
     </row>
-    <row r="398" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H398" s="6"/>
       <c r="I398" s="6"/>
     </row>
-    <row r="399" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H399" s="6"/>
       <c r="I399" s="6"/>
     </row>
-    <row r="400" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H400" s="6"/>
       <c r="I400" s="6"/>
     </row>
-    <row r="401" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H401" s="6"/>
       <c r="I401" s="6"/>
     </row>
-    <row r="402" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H402" s="6"/>
       <c r="I402" s="6"/>
     </row>
-    <row r="403" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H403" s="6"/>
       <c r="I403" s="6"/>
     </row>
-    <row r="404" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H404" s="6"/>
       <c r="I404" s="6"/>
     </row>
-    <row r="405" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H405" s="6"/>
       <c r="I405" s="6"/>
     </row>
-    <row r="406" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H406" s="6"/>
       <c r="I406" s="6"/>
     </row>
-    <row r="407" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H407" s="6"/>
       <c r="I407" s="6"/>
     </row>
-    <row r="408" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H408" s="6"/>
       <c r="I408" s="6"/>
     </row>
-    <row r="409" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H409" s="6"/>
       <c r="I409" s="6"/>
     </row>
-    <row r="410" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H410" s="6"/>
       <c r="I410" s="6"/>
     </row>
-    <row r="411" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H411" s="6"/>
       <c r="I411" s="6"/>
     </row>
-    <row r="412" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H412" s="6"/>
       <c r="I412" s="6"/>
     </row>
-    <row r="413" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H413" s="6"/>
       <c r="I413" s="6"/>
     </row>
-    <row r="414" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H414" s="6"/>
       <c r="I414" s="6"/>
     </row>
-    <row r="415" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H415" s="6"/>
       <c r="I415" s="6"/>
     </row>
-    <row r="416" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
     </row>
-    <row r="417" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H417" s="6"/>
       <c r="I417" s="6"/>
     </row>
-    <row r="418" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H418" s="6"/>
       <c r="I418" s="6"/>
     </row>
-    <row r="419" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H419" s="6"/>
       <c r="I419" s="6"/>
     </row>
-    <row r="420" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H420" s="6"/>
       <c r="I420" s="6"/>
     </row>
-    <row r="421" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H421" s="6"/>
       <c r="I421" s="6"/>
     </row>
-    <row r="422" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H422" s="6"/>
       <c r="I422" s="6"/>
     </row>
-    <row r="423" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H423" s="6"/>
       <c r="I423" s="6"/>
     </row>
-    <row r="424" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H424" s="6"/>
       <c r="I424" s="6"/>
     </row>
-    <row r="425" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H425" s="6"/>
       <c r="I425" s="6"/>
     </row>
-    <row r="426" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H426" s="6"/>
       <c r="I426" s="6"/>
     </row>
-    <row r="427" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H427" s="6"/>
       <c r="I427" s="6"/>
     </row>
-    <row r="428" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H428" s="6"/>
       <c r="I428" s="6"/>
     </row>
-    <row r="429" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H429" s="6"/>
       <c r="I429" s="6"/>
     </row>
-    <row r="430" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H430" s="6"/>
       <c r="I430" s="6"/>
     </row>
-    <row r="431" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H431" s="6"/>
       <c r="I431" s="6"/>
     </row>
-    <row r="432" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H432" s="6"/>
       <c r="I432" s="6"/>
     </row>
-    <row r="433" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H433" s="6"/>
       <c r="I433" s="6"/>
     </row>
-    <row r="434" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H434" s="6"/>
       <c r="I434" s="6"/>
     </row>
-    <row r="435" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H435" s="6"/>
       <c r="I435" s="6"/>
     </row>
-    <row r="436" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H436" s="6"/>
       <c r="I436" s="6"/>
     </row>
-    <row r="437" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
     </row>
-    <row r="438" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
     </row>
-    <row r="439" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
     </row>
-    <row r="440" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
     </row>
-    <row r="441" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H441" s="6"/>
       <c r="I441" s="6"/>
     </row>
-    <row r="442" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
     </row>
-    <row r="443" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
     </row>
-    <row r="444" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H444" s="6"/>
       <c r="I444" s="6"/>
     </row>
-    <row r="445" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H445" s="6"/>
       <c r="I445" s="6"/>
     </row>
-    <row r="446" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H446" s="6"/>
       <c r="I446" s="6"/>
     </row>
-    <row r="447" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H447" s="6"/>
       <c r="I447" s="6"/>
     </row>
-    <row r="448" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H448" s="6"/>
       <c r="I448" s="6"/>
     </row>
-    <row r="449" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
     </row>
-    <row r="450" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
     </row>
-    <row r="451" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
     </row>
-    <row r="452" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
     </row>
-    <row r="453" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
     </row>
-    <row r="454" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H454" s="6"/>
       <c r="I454" s="6"/>
     </row>
-    <row r="455" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
     </row>
-    <row r="456" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
     </row>
-    <row r="457" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
     </row>
-    <row r="458" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H458" s="6"/>
       <c r="I458" s="6"/>
     </row>
-    <row r="459" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H459" s="6"/>
       <c r="I459" s="6"/>
     </row>
-    <row r="460" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H460" s="6"/>
       <c r="I460" s="6"/>
     </row>
-    <row r="461" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
     </row>
-    <row r="462" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H462" s="6"/>
       <c r="I462" s="6"/>
     </row>
-    <row r="463" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H463" s="6"/>
       <c r="I463" s="6"/>
     </row>
-    <row r="464" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H464" s="6"/>
       <c r="I464" s="6"/>
     </row>
-    <row r="465" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H465" s="6"/>
       <c r="I465" s="6"/>
     </row>
-    <row r="466" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H466" s="6"/>
       <c r="I466" s="6"/>
     </row>
-    <row r="467" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H467" s="6"/>
       <c r="I467" s="6"/>
     </row>
-    <row r="468" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H468" s="6"/>
       <c r="I468" s="6"/>
     </row>
-    <row r="469" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H469" s="6"/>
       <c r="I469" s="6"/>
     </row>
-    <row r="470" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H470" s="6"/>
       <c r="I470" s="6"/>
     </row>
-    <row r="471" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H471" s="6"/>
       <c r="I471" s="6"/>
     </row>
-    <row r="472" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H472" s="6"/>
       <c r="I472" s="6"/>
     </row>
-    <row r="473" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H473" s="6"/>
       <c r="I473" s="6"/>
     </row>
-    <row r="474" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H474" s="6"/>
       <c r="I474" s="6"/>
     </row>
-    <row r="475" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H475" s="6"/>
       <c r="I475" s="6"/>
     </row>
-    <row r="476" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H476" s="6"/>
       <c r="I476" s="6"/>
     </row>
-    <row r="477" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H477" s="6"/>
       <c r="I477" s="6"/>
     </row>
-    <row r="478" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H478" s="6"/>
       <c r="I478" s="6"/>
     </row>
-    <row r="479" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H479" s="6"/>
       <c r="I479" s="6"/>
     </row>
-    <row r="480" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H480" s="6"/>
       <c r="I480" s="6"/>
     </row>
-    <row r="481" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H481" s="6"/>
       <c r="I481" s="6"/>
     </row>
-    <row r="482" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H482" s="6"/>
       <c r="I482" s="6"/>
     </row>
-    <row r="483" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H483" s="6"/>
       <c r="I483" s="6"/>
     </row>
-    <row r="484" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H484" s="6"/>
       <c r="I484" s="6"/>
     </row>
-    <row r="485" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H485" s="6"/>
       <c r="I485" s="6"/>
     </row>
-    <row r="486" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H486" s="6"/>
       <c r="I486" s="6"/>
     </row>
-    <row r="487" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H487" s="6"/>
       <c r="I487" s="6"/>
     </row>
-    <row r="488" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H488" s="6"/>
       <c r="I488" s="6"/>
     </row>
-    <row r="489" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H489" s="6"/>
       <c r="I489" s="6"/>
     </row>
-    <row r="490" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H490" s="6"/>
       <c r="I490" s="6"/>
     </row>
-    <row r="491" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H491" s="6"/>
       <c r="I491" s="6"/>
     </row>
-    <row r="492" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H492" s="6"/>
       <c r="I492" s="6"/>
     </row>
-    <row r="493" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H493" s="6"/>
       <c r="I493" s="6"/>
     </row>
-    <row r="494" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H494" s="6"/>
       <c r="I494" s="6"/>
     </row>
-    <row r="495" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H495" s="6"/>
       <c r="I495" s="6"/>
     </row>
-    <row r="496" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H496" s="6"/>
       <c r="I496" s="6"/>
     </row>
-    <row r="497" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H497" s="6"/>
       <c r="I497" s="6"/>
     </row>
-    <row r="498" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H498" s="6"/>
       <c r="I498" s="6"/>
     </row>
-    <row r="499" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H499" s="6"/>
       <c r="I499" s="6"/>
     </row>
-    <row r="500" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H500" s="6"/>
       <c r="I500" s="6"/>
     </row>
-    <row r="501" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H501" s="6"/>
       <c r="I501" s="6"/>
     </row>
-    <row r="502" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H502" s="6"/>
       <c r="I502" s="6"/>
     </row>
-    <row r="503" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H503" s="6"/>
       <c r="I503" s="6"/>
     </row>
-    <row r="504" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H504" s="6"/>
       <c r="I504" s="6"/>
     </row>
-    <row r="505" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H505" s="6"/>
       <c r="I505" s="6"/>
     </row>
-    <row r="506" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H506" s="6"/>
       <c r="I506" s="6"/>
     </row>
-    <row r="507" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H507" s="6"/>
       <c r="I507" s="6"/>
     </row>
-    <row r="508" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H508" s="6"/>
       <c r="I508" s="6"/>
     </row>
-    <row r="509" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H509" s="6"/>
       <c r="I509" s="6"/>
     </row>
-    <row r="510" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H510" s="6"/>
       <c r="I510" s="6"/>
     </row>
-    <row r="511" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H511" s="6"/>
       <c r="I511" s="6"/>
     </row>
-    <row r="512" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H512" s="6"/>
       <c r="I512" s="6"/>
     </row>
-    <row r="513" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H513" s="6"/>
       <c r="I513" s="6"/>
     </row>
-    <row r="514" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H514" s="6"/>
       <c r="I514" s="6"/>
     </row>
-    <row r="515" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H515" s="6"/>
       <c r="I515" s="6"/>
     </row>
-    <row r="516" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H516" s="6"/>
       <c r="I516" s="6"/>
     </row>
-    <row r="517" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H517" s="6"/>
       <c r="I517" s="6"/>
     </row>
-    <row r="518" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H518" s="6"/>
       <c r="I518" s="6"/>
     </row>
-    <row r="519" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H519" s="6"/>
       <c r="I519" s="6"/>
     </row>
-    <row r="520" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H520" s="6"/>
       <c r="I520" s="6"/>
     </row>
-    <row r="521" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H521" s="6"/>
       <c r="I521" s="6"/>
     </row>
-    <row r="522" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H522" s="6"/>
       <c r="I522" s="6"/>
     </row>
-    <row r="523" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H523" s="6"/>
       <c r="I523" s="6"/>
     </row>
-    <row r="524" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H524" s="6"/>
       <c r="I524" s="6"/>
     </row>
-    <row r="525" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H525" s="6"/>
       <c r="I525" s="6"/>
     </row>
-    <row r="526" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H526" s="6"/>
       <c r="I526" s="6"/>
     </row>
-    <row r="527" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H527" s="6"/>
       <c r="I527" s="6"/>
     </row>
-    <row r="528" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H528" s="6"/>
       <c r="I528" s="6"/>
     </row>
-    <row r="529" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H529" s="6"/>
       <c r="I529" s="6"/>
     </row>
-    <row r="530" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H530" s="6"/>
       <c r="I530" s="6"/>
     </row>
-    <row r="531" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H531" s="6"/>
       <c r="I531" s="6"/>
     </row>
-    <row r="532" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H532" s="6"/>
       <c r="I532" s="6"/>
     </row>
-    <row r="533" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H533" s="6"/>
       <c r="I533" s="6"/>
     </row>
-    <row r="534" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H534" s="6"/>
       <c r="I534" s="6"/>
     </row>
-    <row r="535" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H535" s="6"/>
       <c r="I535" s="6"/>
     </row>
-    <row r="536" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H536" s="6"/>
       <c r="I536" s="6"/>
     </row>
-    <row r="537" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H537" s="6"/>
       <c r="I537" s="6"/>
     </row>
-    <row r="538" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H538" s="6"/>
       <c r="I538" s="6"/>
     </row>
-    <row r="539" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H539" s="6"/>
       <c r="I539" s="6"/>
     </row>
-    <row r="540" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H540" s="6"/>
       <c r="I540" s="6"/>
     </row>
-    <row r="541" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H541" s="6"/>
       <c r="I541" s="6"/>
     </row>
-    <row r="542" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H542" s="6"/>
       <c r="I542" s="6"/>
     </row>
-    <row r="543" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H543" s="6"/>
       <c r="I543" s="6"/>
     </row>
-    <row r="544" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H544" s="6"/>
       <c r="I544" s="6"/>
     </row>
-    <row r="545" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H545" s="6"/>
       <c r="I545" s="6"/>
     </row>
-    <row r="546" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H546" s="6"/>
       <c r="I546" s="6"/>
     </row>
-    <row r="547" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H547" s="6"/>
       <c r="I547" s="6"/>
     </row>
-    <row r="548" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H548" s="6"/>
       <c r="I548" s="6"/>
     </row>
-    <row r="549" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H549" s="6"/>
       <c r="I549" s="6"/>
     </row>
-    <row r="550" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H550" s="6"/>
       <c r="I550" s="6"/>
     </row>
-    <row r="551" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H551" s="6"/>
       <c r="I551" s="6"/>
     </row>
-    <row r="552" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H552" s="6"/>
       <c r="I552" s="6"/>
     </row>
-    <row r="553" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H553" s="6"/>
       <c r="I553" s="6"/>
     </row>
-    <row r="554" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H554" s="6"/>
       <c r="I554" s="6"/>
     </row>
-    <row r="555" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H555" s="6"/>
       <c r="I555" s="6"/>
     </row>
-    <row r="556" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H556" s="6"/>
       <c r="I556" s="6"/>
     </row>
-    <row r="557" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H557" s="6"/>
       <c r="I557" s="6"/>
     </row>
-    <row r="558" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H558" s="6"/>
       <c r="I558" s="6"/>
     </row>
-    <row r="559" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H559" s="6"/>
       <c r="I559" s="6"/>
     </row>
-    <row r="560" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H560" s="6"/>
       <c r="I560" s="6"/>
     </row>
-    <row r="561" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H561" s="6"/>
       <c r="I561" s="6"/>
     </row>
-    <row r="562" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H562" s="6"/>
       <c r="I562" s="6"/>
     </row>
-    <row r="563" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H563" s="6"/>
       <c r="I563" s="6"/>
     </row>
-    <row r="564" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H564" s="6"/>
       <c r="I564" s="6"/>
     </row>
-    <row r="565" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H565" s="6"/>
       <c r="I565" s="6"/>
     </row>
-    <row r="566" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H566" s="6"/>
       <c r="I566" s="6"/>
     </row>
-    <row r="567" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H567" s="6"/>
       <c r="I567" s="6"/>
     </row>
-    <row r="568" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H568" s="6"/>
       <c r="I568" s="6"/>
     </row>
-    <row r="569" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H569" s="6"/>
       <c r="I569" s="6"/>
     </row>
-    <row r="570" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H570" s="6"/>
       <c r="I570" s="6"/>
     </row>
-    <row r="571" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H571" s="6"/>
       <c r="I571" s="6"/>
     </row>
-    <row r="572" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H572" s="6"/>
       <c r="I572" s="6"/>
     </row>
-    <row r="573" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H573" s="6"/>
       <c r="I573" s="6"/>
     </row>
-    <row r="574" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H574" s="6"/>
       <c r="I574" s="6"/>
     </row>
-    <row r="575" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H575" s="6"/>
       <c r="I575" s="6"/>
     </row>
-    <row r="576" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H576" s="6"/>
       <c r="I576" s="6"/>
     </row>
-    <row r="577" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H577" s="6"/>
       <c r="I577" s="6"/>
     </row>
-    <row r="578" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H578" s="6"/>
       <c r="I578" s="6"/>
     </row>
-    <row r="579" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H579" s="6"/>
       <c r="I579" s="6"/>
     </row>
-    <row r="580" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H580" s="6"/>
       <c r="I580" s="6"/>
     </row>
-    <row r="581" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H581" s="6"/>
       <c r="I581" s="6"/>
     </row>
-    <row r="582" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H582" s="6"/>
       <c r="I582" s="6"/>
     </row>
-    <row r="583" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H583" s="6"/>
       <c r="I583" s="6"/>
     </row>
-    <row r="584" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H584" s="6"/>
       <c r="I584" s="6"/>
     </row>
-    <row r="585" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H585" s="6"/>
       <c r="I585" s="6"/>
     </row>
-    <row r="586" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H586" s="6"/>
       <c r="I586" s="6"/>
     </row>
-    <row r="587" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H587" s="6"/>
       <c r="I587" s="6"/>
     </row>
-    <row r="588" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H588" s="6"/>
       <c r="I588" s="6"/>
     </row>
-    <row r="589" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H589" s="6"/>
       <c r="I589" s="6"/>
     </row>
-    <row r="590" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H590" s="6"/>
       <c r="I590" s="6"/>
     </row>
-    <row r="591" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H591" s="6"/>
       <c r="I591" s="6"/>
     </row>
-    <row r="592" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H592" s="6"/>
       <c r="I592" s="6"/>
     </row>
-    <row r="593" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H593" s="6"/>
       <c r="I593" s="6"/>
     </row>
-    <row r="594" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H594" s="6"/>
       <c r="I594" s="6"/>
     </row>
-    <row r="595" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H595" s="6"/>
       <c r="I595" s="6"/>
     </row>
-    <row r="596" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H596" s="6"/>
       <c r="I596" s="6"/>
     </row>
-    <row r="597" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H597" s="6"/>
       <c r="I597" s="6"/>
     </row>
-    <row r="598" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H598" s="6"/>
       <c r="I598" s="6"/>
     </row>
-    <row r="599" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H599" s="6"/>
       <c r="I599" s="6"/>
     </row>
-    <row r="600" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H600" s="6"/>
       <c r="I600" s="6"/>
     </row>
-    <row r="601" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H601" s="6"/>
       <c r="I601" s="6"/>
     </row>
-    <row r="602" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H602" s="6"/>
       <c r="I602" s="6"/>
     </row>
-    <row r="603" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H603" s="6"/>
       <c r="I603" s="6"/>
     </row>
-    <row r="604" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H604" s="6"/>
       <c r="I604" s="6"/>
     </row>
-    <row r="605" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H605" s="6"/>
       <c r="I605" s="6"/>
     </row>
-    <row r="606" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H606" s="6"/>
       <c r="I606" s="6"/>
     </row>
-    <row r="607" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H607" s="6"/>
       <c r="I607" s="6"/>
     </row>
-    <row r="608" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H608" s="6"/>
       <c r="I608" s="6"/>
     </row>
-    <row r="609" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H609" s="6"/>
       <c r="I609" s="6"/>
     </row>
-    <row r="610" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H610" s="6"/>
       <c r="I610" s="6"/>
     </row>
-    <row r="611" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H611" s="6"/>
       <c r="I611" s="6"/>
     </row>
-    <row r="612" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H612" s="6"/>
       <c r="I612" s="6"/>
     </row>
-    <row r="613" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H613" s="6"/>
       <c r="I613" s="6"/>
     </row>
-    <row r="614" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H614" s="6"/>
       <c r="I614" s="6"/>
     </row>
-    <row r="615" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H615" s="6"/>
       <c r="I615" s="6"/>
     </row>
-    <row r="616" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H616" s="6"/>
       <c r="I616" s="6"/>
     </row>
-    <row r="617" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H617" s="6"/>
       <c r="I617" s="6"/>
     </row>
-    <row r="618" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H618" s="6"/>
       <c r="I618" s="6"/>
     </row>
-    <row r="619" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H619" s="6"/>
       <c r="I619" s="6"/>
     </row>
-    <row r="620" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H620" s="6"/>
       <c r="I620" s="6"/>
     </row>
-    <row r="621" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H621" s="6"/>
       <c r="I621" s="6"/>
     </row>
-    <row r="622" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H622" s="6"/>
       <c r="I622" s="6"/>
     </row>
-    <row r="623" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H623" s="6"/>
       <c r="I623" s="6"/>
     </row>
-    <row r="624" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H624" s="6"/>
       <c r="I624" s="6"/>
     </row>
-    <row r="625" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H625" s="6"/>
       <c r="I625" s="6"/>
     </row>
-    <row r="626" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H626" s="6"/>
       <c r="I626" s="6"/>
     </row>
-    <row r="627" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H627" s="6"/>
       <c r="I627" s="6"/>
     </row>
-    <row r="628" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H628" s="6"/>
       <c r="I628" s="6"/>
     </row>
-    <row r="629" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H629" s="6"/>
       <c r="I629" s="6"/>
     </row>
-    <row r="630" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H630" s="6"/>
       <c r="I630" s="6"/>
     </row>
-    <row r="631" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H631" s="6"/>
       <c r="I631" s="6"/>
     </row>
-    <row r="632" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H632" s="6"/>
       <c r="I632" s="6"/>
     </row>
-    <row r="633" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H633" s="6"/>
       <c r="I633" s="6"/>
     </row>
-    <row r="634" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H634" s="6"/>
       <c r="I634" s="6"/>
     </row>
-    <row r="635" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H635" s="6"/>
       <c r="I635" s="6"/>
     </row>
-    <row r="636" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H636" s="6"/>
       <c r="I636" s="6"/>
     </row>
-    <row r="637" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H637" s="6"/>
       <c r="I637" s="6"/>
     </row>
-    <row r="638" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H638" s="6"/>
       <c r="I638" s="6"/>
     </row>
-    <row r="639" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H639" s="6"/>
       <c r="I639" s="6"/>
     </row>
-    <row r="640" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H640" s="6"/>
       <c r="I640" s="6"/>
     </row>
-    <row r="641" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H641" s="6"/>
       <c r="I641" s="6"/>
     </row>
-    <row r="642" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H642" s="6"/>
       <c r="I642" s="6"/>
     </row>
-    <row r="643" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H643" s="6"/>
       <c r="I643" s="6"/>
     </row>
-    <row r="644" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H644" s="6"/>
       <c r="I644" s="6"/>
     </row>
-    <row r="645" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H645" s="6"/>
       <c r="I645" s="6"/>
     </row>
-    <row r="646" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H646" s="6"/>
       <c r="I646" s="6"/>
     </row>
-    <row r="647" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H647" s="6"/>
       <c r="I647" s="6"/>
     </row>
-    <row r="648" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H648" s="6"/>
       <c r="I648" s="6"/>
     </row>
-    <row r="649" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H649" s="6"/>
       <c r="I649" s="6"/>
     </row>
-    <row r="650" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H650" s="6"/>
       <c r="I650" s="6"/>
     </row>
-    <row r="651" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H651" s="6"/>
       <c r="I651" s="6"/>
     </row>
-    <row r="652" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H652" s="6"/>
       <c r="I652" s="6"/>
     </row>
-    <row r="653" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H653" s="6"/>
       <c r="I653" s="6"/>
     </row>
-    <row r="654" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H654" s="6"/>
       <c r="I654" s="6"/>
     </row>
-    <row r="655" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H655" s="6"/>
       <c r="I655" s="6"/>
     </row>
-    <row r="656" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H656" s="6"/>
       <c r="I656" s="6"/>
     </row>
-    <row r="657" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H657" s="6"/>
       <c r="I657" s="6"/>
     </row>
-    <row r="658" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H658" s="6"/>
       <c r="I658" s="6"/>
     </row>
-    <row r="659" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H659" s="6"/>
       <c r="I659" s="6"/>
     </row>
-    <row r="660" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H660" s="6"/>
       <c r="I660" s="6"/>
     </row>
-    <row r="661" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H661" s="6"/>
       <c r="I661" s="6"/>
     </row>
-    <row r="662" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H662" s="6"/>
       <c r="I662" s="6"/>
     </row>
-    <row r="663" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H663" s="6"/>
       <c r="I663" s="6"/>
     </row>
-    <row r="664" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H664" s="6"/>
       <c r="I664" s="6"/>
     </row>
-    <row r="665" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H665" s="6"/>
       <c r="I665" s="6"/>
     </row>
-    <row r="666" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H666" s="6"/>
       <c r="I666" s="6"/>
     </row>
-    <row r="667" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H667" s="6"/>
       <c r="I667" s="6"/>
     </row>
-    <row r="668" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H668" s="6"/>
       <c r="I668" s="6"/>
     </row>
-    <row r="669" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H669" s="6"/>
       <c r="I669" s="6"/>
     </row>
-    <row r="670" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H670" s="6"/>
       <c r="I670" s="6"/>
     </row>
-    <row r="671" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H671" s="6"/>
       <c r="I671" s="6"/>
     </row>
-    <row r="672" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H672" s="6"/>
       <c r="I672" s="6"/>
     </row>
-    <row r="673" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H673" s="6"/>
       <c r="I673" s="6"/>
     </row>
-    <row r="674" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H674" s="6"/>
       <c r="I674" s="6"/>
     </row>
-    <row r="675" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H675" s="6"/>
       <c r="I675" s="6"/>
     </row>
-    <row r="676" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H676" s="6"/>
       <c r="I676" s="6"/>
     </row>
-    <row r="677" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H677" s="6"/>
       <c r="I677" s="6"/>
     </row>
-    <row r="678" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H678" s="6"/>
       <c r="I678" s="6"/>
     </row>
-    <row r="679" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H679" s="6"/>
       <c r="I679" s="6"/>
     </row>
-    <row r="680" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H680" s="6"/>
       <c r="I680" s="6"/>
     </row>
-    <row r="681" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H681" s="6"/>
       <c r="I681" s="6"/>
     </row>
-    <row r="682" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H682" s="6"/>
       <c r="I682" s="6"/>
     </row>
-    <row r="683" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H683" s="6"/>
       <c r="I683" s="6"/>
     </row>
-    <row r="684" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H684" s="6"/>
       <c r="I684" s="6"/>
     </row>
-    <row r="685" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H685" s="6"/>
       <c r="I685" s="6"/>
     </row>
-    <row r="686" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H686" s="6"/>
       <c r="I686" s="6"/>
     </row>
-    <row r="687" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H687" s="6"/>
       <c r="I687" s="6"/>
     </row>
-    <row r="688" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H688" s="6"/>
       <c r="I688" s="6"/>
     </row>
-    <row r="689" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H689" s="6"/>
       <c r="I689" s="6"/>
     </row>
-    <row r="690" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H690" s="6"/>
       <c r="I690" s="6"/>
     </row>
-    <row r="691" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H691" s="6"/>
       <c r="I691" s="6"/>
     </row>
-    <row r="692" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H692" s="6"/>
       <c r="I692" s="6"/>
     </row>
-    <row r="693" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H693" s="6"/>
       <c r="I693" s="6"/>
     </row>
-    <row r="694" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H694" s="6"/>
       <c r="I694" s="6"/>
     </row>
-    <row r="695" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H695" s="6"/>
       <c r="I695" s="6"/>
     </row>
-    <row r="696" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H696" s="6"/>
       <c r="I696" s="6"/>
     </row>
-    <row r="697" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H697" s="6"/>
       <c r="I697" s="6"/>
     </row>
-    <row r="698" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H698" s="6"/>
       <c r="I698" s="6"/>
     </row>
-    <row r="699" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H699" s="6"/>
       <c r="I699" s="6"/>
     </row>
-    <row r="700" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H700" s="6"/>
       <c r="I700" s="6"/>
     </row>
-    <row r="701" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H701" s="6"/>
       <c r="I701" s="6"/>
     </row>
-    <row r="702" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H702" s="6"/>
       <c r="I702" s="6"/>
     </row>
-    <row r="703" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H703" s="6"/>
       <c r="I703" s="6"/>
     </row>
-    <row r="704" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H704" s="6"/>
       <c r="I704" s="6"/>
     </row>
-    <row r="705" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H705" s="6"/>
       <c r="I705" s="6"/>
     </row>
-    <row r="706" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H706" s="6"/>
       <c r="I706" s="6"/>
     </row>
-    <row r="707" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H707" s="6"/>
       <c r="I707" s="6"/>
     </row>
-    <row r="708" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H708" s="6"/>
       <c r="I708" s="6"/>
     </row>
-    <row r="709" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H709" s="6"/>
       <c r="I709" s="6"/>
     </row>
-    <row r="710" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H710" s="6"/>
       <c r="I710" s="6"/>
     </row>
-    <row r="711" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H711" s="6"/>
       <c r="I711" s="6"/>
     </row>
-    <row r="712" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H712" s="6"/>
       <c r="I712" s="6"/>
     </row>
-    <row r="713" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H713" s="6"/>
       <c r="I713" s="6"/>
     </row>
-    <row r="714" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H714" s="6"/>
       <c r="I714" s="6"/>
     </row>
-    <row r="715" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H715" s="6"/>
       <c r="I715" s="6"/>
     </row>
-    <row r="716" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H716" s="6"/>
       <c r="I716" s="6"/>
     </row>
-    <row r="717" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H717" s="6"/>
       <c r="I717" s="6"/>
     </row>
-    <row r="718" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H718" s="6"/>
       <c r="I718" s="6"/>
     </row>
-    <row r="719" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H719" s="6"/>
       <c r="I719" s="6"/>
     </row>
-    <row r="720" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H720" s="6"/>
       <c r="I720" s="6"/>
     </row>
-    <row r="721" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H721" s="6"/>
       <c r="I721" s="6"/>
     </row>
-    <row r="722" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H722" s="6"/>
       <c r="I722" s="6"/>
     </row>
-    <row r="723" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H723" s="6"/>
       <c r="I723" s="6"/>
     </row>
-    <row r="724" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H724" s="6"/>
       <c r="I724" s="6"/>
     </row>
-    <row r="725" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H725" s="6"/>
       <c r="I725" s="6"/>
     </row>
-    <row r="726" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H726" s="6"/>
       <c r="I726" s="6"/>
     </row>
-    <row r="727" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H727" s="6"/>
       <c r="I727" s="6"/>
     </row>
-    <row r="728" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H728" s="6"/>
       <c r="I728" s="6"/>
     </row>
-    <row r="729" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H729" s="6"/>
       <c r="I729" s="6"/>
     </row>
-    <row r="730" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H730" s="6"/>
       <c r="I730" s="6"/>
     </row>
-    <row r="731" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H731" s="6"/>
       <c r="I731" s="6"/>
     </row>
-    <row r="732" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H732" s="6"/>
       <c r="I732" s="6"/>
     </row>
-    <row r="733" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H733" s="6"/>
       <c r="I733" s="6"/>
     </row>
-    <row r="734" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H734" s="6"/>
       <c r="I734" s="6"/>
     </row>
-    <row r="735" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H735" s="6"/>
       <c r="I735" s="6"/>
     </row>
-    <row r="736" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H736" s="6"/>
       <c r="I736" s="6"/>
     </row>
-    <row r="737" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H737" s="6"/>
       <c r="I737" s="6"/>
     </row>
-    <row r="738" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H738" s="6"/>
       <c r="I738" s="6"/>
     </row>
-    <row r="739" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H739" s="6"/>
       <c r="I739" s="6"/>
     </row>
-    <row r="740" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H740" s="6"/>
       <c r="I740" s="6"/>
     </row>
-    <row r="741" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H741" s="6"/>
       <c r="I741" s="6"/>
     </row>
-    <row r="742" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H742" s="6"/>
       <c r="I742" s="6"/>
     </row>
-    <row r="743" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H743" s="6"/>
       <c r="I743" s="6"/>
     </row>
-    <row r="744" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H744" s="6"/>
       <c r="I744" s="6"/>
     </row>
-    <row r="745" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H745" s="6"/>
       <c r="I745" s="6"/>
     </row>
-    <row r="746" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H746" s="6"/>
       <c r="I746" s="6"/>
     </row>
-    <row r="747" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H747" s="6"/>
       <c r="I747" s="6"/>
     </row>
-    <row r="748" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H748" s="6"/>
       <c r="I748" s="6"/>
     </row>
-    <row r="749" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H749" s="6"/>
       <c r="I749" s="6"/>
     </row>
-    <row r="750" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H750" s="6"/>
       <c r="I750" s="6"/>
     </row>
-    <row r="751" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H751" s="6"/>
       <c r="I751" s="6"/>
     </row>
-    <row r="752" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H752" s="6"/>
       <c r="I752" s="6"/>
     </row>
-    <row r="753" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H753" s="6"/>
       <c r="I753" s="6"/>
     </row>
-    <row r="754" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H754" s="6"/>
       <c r="I754" s="6"/>
     </row>
-    <row r="755" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H755" s="6"/>
       <c r="I755" s="6"/>
     </row>
-    <row r="756" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H756" s="6"/>
       <c r="I756" s="6"/>
     </row>
-    <row r="757" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H757" s="6"/>
       <c r="I757" s="6"/>
     </row>
-    <row r="758" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H758" s="6"/>
       <c r="I758" s="6"/>
     </row>
-    <row r="759" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H759" s="6"/>
       <c r="I759" s="6"/>
     </row>
-    <row r="760" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H760" s="6"/>
       <c r="I760" s="6"/>
     </row>
-    <row r="761" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H761" s="6"/>
       <c r="I761" s="6"/>
     </row>
-    <row r="762" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H762" s="6"/>
       <c r="I762" s="6"/>
     </row>
-    <row r="763" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H763" s="6"/>
       <c r="I763" s="6"/>
     </row>
-    <row r="764" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H764" s="6"/>
       <c r="I764" s="6"/>
     </row>
-    <row r="765" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H765" s="6"/>
       <c r="I765" s="6"/>
     </row>
-    <row r="766" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H766" s="6"/>
       <c r="I766" s="6"/>
     </row>
-    <row r="767" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H767" s="6"/>
       <c r="I767" s="6"/>
     </row>
-    <row r="768" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H768" s="6"/>
       <c r="I768" s="6"/>
     </row>
-    <row r="769" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H769" s="6"/>
       <c r="I769" s="6"/>
     </row>
-    <row r="770" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H770" s="6"/>
       <c r="I770" s="6"/>
     </row>
-    <row r="771" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H771" s="6"/>
       <c r="I771" s="6"/>
     </row>
-    <row r="772" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H772" s="6"/>
       <c r="I772" s="6"/>
     </row>
-    <row r="773" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H773" s="6"/>
       <c r="I773" s="6"/>
     </row>
-    <row r="774" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H774" s="6"/>
       <c r="I774" s="6"/>
     </row>
-    <row r="775" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H775" s="6"/>
       <c r="I775" s="6"/>
     </row>
-    <row r="776" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H776" s="6"/>
       <c r="I776" s="6"/>
     </row>
-    <row r="777" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H777" s="6"/>
       <c r="I777" s="6"/>
     </row>
-    <row r="778" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H778" s="6"/>
       <c r="I778" s="6"/>
     </row>
-    <row r="779" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H779" s="6"/>
       <c r="I779" s="6"/>
     </row>
-    <row r="780" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H780" s="6"/>
       <c r="I780" s="6"/>
     </row>
-    <row r="781" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H781" s="6"/>
       <c r="I781" s="6"/>
     </row>
-    <row r="782" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H782" s="6"/>
       <c r="I782" s="6"/>
     </row>
-    <row r="783" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H783" s="6"/>
       <c r="I783" s="6"/>
     </row>
-    <row r="784" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H784" s="6"/>
       <c r="I784" s="6"/>
     </row>
-    <row r="785" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H785" s="6"/>
       <c r="I785" s="6"/>
     </row>
-    <row r="786" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H786" s="6"/>
       <c r="I786" s="6"/>
     </row>
-    <row r="787" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H787" s="6"/>
       <c r="I787" s="6"/>
     </row>
-    <row r="788" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H788" s="6"/>
       <c r="I788" s="6"/>
     </row>
-    <row r="789" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H789" s="6"/>
       <c r="I789" s="6"/>
     </row>
-    <row r="790" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H790" s="6"/>
       <c r="I790" s="6"/>
     </row>
-    <row r="791" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H791" s="6"/>
       <c r="I791" s="6"/>
     </row>
-    <row r="792" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H792" s="6"/>
       <c r="I792" s="6"/>
     </row>
-    <row r="793" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H793" s="6"/>
       <c r="I793" s="6"/>
     </row>
-    <row r="794" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H794" s="6"/>
       <c r="I794" s="6"/>
     </row>
-    <row r="795" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H795" s="6"/>
       <c r="I795" s="6"/>
     </row>
-    <row r="796" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H796" s="6"/>
       <c r="I796" s="6"/>
     </row>
-    <row r="797" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H797" s="6"/>
       <c r="I797" s="6"/>
     </row>
-    <row r="798" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H798" s="6"/>
       <c r="I798" s="6"/>
     </row>
-    <row r="799" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H799" s="6"/>
       <c r="I799" s="6"/>
     </row>
-    <row r="800" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H800" s="6"/>
       <c r="I800" s="6"/>
     </row>
-    <row r="801" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H801" s="6"/>
       <c r="I801" s="6"/>
     </row>
-    <row r="802" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H802" s="6"/>
       <c r="I802" s="6"/>
     </row>
-    <row r="803" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H803" s="6"/>
       <c r="I803" s="6"/>
     </row>
-    <row r="804" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H804" s="6"/>
       <c r="I804" s="6"/>
     </row>
-    <row r="805" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H805" s="6"/>
       <c r="I805" s="6"/>
     </row>
-    <row r="806" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H806" s="6"/>
       <c r="I806" s="6"/>
     </row>
-    <row r="807" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H807" s="6"/>
       <c r="I807" s="6"/>
     </row>
-    <row r="808" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H808" s="6"/>
       <c r="I808" s="6"/>
     </row>
-    <row r="809" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H809" s="6"/>
       <c r="I809" s="6"/>
     </row>
-    <row r="810" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H810" s="6"/>
       <c r="I810" s="6"/>
     </row>
-    <row r="811" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H811" s="6"/>
       <c r="I811" s="6"/>
     </row>
-    <row r="812" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H812" s="6"/>
       <c r="I812" s="6"/>
     </row>
-    <row r="813" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H813" s="6"/>
       <c r="I813" s="6"/>
     </row>
-    <row r="814" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H814" s="6"/>
       <c r="I814" s="6"/>
     </row>
-    <row r="815" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H815" s="6"/>
       <c r="I815" s="6"/>
     </row>
-    <row r="816" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H816" s="6"/>
       <c r="I816" s="6"/>
     </row>
-    <row r="817" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H817" s="6"/>
       <c r="I817" s="6"/>
     </row>
-    <row r="818" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H818" s="6"/>
       <c r="I818" s="6"/>
     </row>
-    <row r="819" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H819" s="6"/>
       <c r="I819" s="6"/>
     </row>
-    <row r="820" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H820" s="6"/>
       <c r="I820" s="6"/>
     </row>
-    <row r="821" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H821" s="6"/>
       <c r="I821" s="6"/>
     </row>
-    <row r="822" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H822" s="6"/>
       <c r="I822" s="6"/>
     </row>
-    <row r="823" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H823" s="6"/>
       <c r="I823" s="6"/>
     </row>
-    <row r="824" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H824" s="6"/>
       <c r="I824" s="6"/>
     </row>
-    <row r="825" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H825" s="6"/>
       <c r="I825" s="6"/>
     </row>
-    <row r="826" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H826" s="6"/>
       <c r="I826" s="6"/>
     </row>
-    <row r="827" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H827" s="6"/>
       <c r="I827" s="6"/>
     </row>
-    <row r="828" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H828" s="6"/>
       <c r="I828" s="6"/>
     </row>
-    <row r="829" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H829" s="6"/>
       <c r="I829" s="6"/>
     </row>
-    <row r="830" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H830" s="6"/>
       <c r="I830" s="6"/>
     </row>
-    <row r="831" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H831" s="6"/>
       <c r="I831" s="6"/>
     </row>
-    <row r="832" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H832" s="6"/>
       <c r="I832" s="6"/>
     </row>
-    <row r="833" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H833" s="6"/>
       <c r="I833" s="6"/>
     </row>
-    <row r="834" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H834" s="6"/>
       <c r="I834" s="6"/>
     </row>
-    <row r="835" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H835" s="6"/>
       <c r="I835" s="6"/>
     </row>
-    <row r="836" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H836" s="6"/>
       <c r="I836" s="6"/>
     </row>
-    <row r="837" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H837" s="6"/>
       <c r="I837" s="6"/>
     </row>
-    <row r="838" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H838" s="6"/>
       <c r="I838" s="6"/>
     </row>
-    <row r="839" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H839" s="6"/>
       <c r="I839" s="6"/>
     </row>
-    <row r="840" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H840" s="6"/>
       <c r="I840" s="6"/>
     </row>
-    <row r="841" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H841" s="6"/>
       <c r="I841" s="6"/>
     </row>
-    <row r="842" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H842" s="6"/>
       <c r="I842" s="6"/>
     </row>
-    <row r="843" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H843" s="6"/>
       <c r="I843" s="6"/>
     </row>
-    <row r="844" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H844" s="6"/>
       <c r="I844" s="6"/>
     </row>
-    <row r="845" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H845" s="6"/>
       <c r="I845" s="6"/>
     </row>
-    <row r="846" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H846" s="6"/>
       <c r="I846" s="6"/>
     </row>
-    <row r="847" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H847" s="6"/>
       <c r="I847" s="6"/>
     </row>
-    <row r="848" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H848" s="6"/>
       <c r="I848" s="6"/>
     </row>
-    <row r="849" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H849" s="6"/>
       <c r="I849" s="6"/>
     </row>
-    <row r="850" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H850" s="6"/>
       <c r="I850" s="6"/>
     </row>
-    <row r="851" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H851" s="6"/>
       <c r="I851" s="6"/>
     </row>
-    <row r="852" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H852" s="6"/>
       <c r="I852" s="6"/>
     </row>
-    <row r="853" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H853" s="6"/>
       <c r="I853" s="6"/>
     </row>
-    <row r="854" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H854" s="6"/>
       <c r="I854" s="6"/>
     </row>
-    <row r="855" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H855" s="6"/>
       <c r="I855" s="6"/>
     </row>
-    <row r="856" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H856" s="6"/>
       <c r="I856" s="6"/>
     </row>
-    <row r="857" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H857" s="6"/>
       <c r="I857" s="6"/>
     </row>
-    <row r="858" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H858" s="6"/>
       <c r="I858" s="6"/>
     </row>
-    <row r="859" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H859" s="6"/>
       <c r="I859" s="6"/>
     </row>
-    <row r="860" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H860" s="6"/>
       <c r="I860" s="6"/>
     </row>
-    <row r="861" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H861" s="6"/>
       <c r="I861" s="6"/>
     </row>
-    <row r="862" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H862" s="6"/>
       <c r="I862" s="6"/>
     </row>
-    <row r="863" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H863" s="6"/>
       <c r="I863" s="6"/>
     </row>
-    <row r="864" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H864" s="6"/>
       <c r="I864" s="6"/>
     </row>
-    <row r="865" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H865" s="6"/>
       <c r="I865" s="6"/>
     </row>
-    <row r="866" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H866" s="6"/>
       <c r="I866" s="6"/>
     </row>
-    <row r="867" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H867" s="6"/>
       <c r="I867" s="6"/>
     </row>
-    <row r="868" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H868" s="6"/>
       <c r="I868" s="6"/>
     </row>
-    <row r="869" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H869" s="6"/>
       <c r="I869" s="6"/>
     </row>
-    <row r="870" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H870" s="6"/>
       <c r="I870" s="6"/>
     </row>
-    <row r="871" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H871" s="6"/>
       <c r="I871" s="6"/>
     </row>
-    <row r="872" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H872" s="6"/>
       <c r="I872" s="6"/>
     </row>
-    <row r="873" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H873" s="6"/>
       <c r="I873" s="6"/>
     </row>
-    <row r="874" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H874" s="6"/>
       <c r="I874" s="6"/>
     </row>
-    <row r="875" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H875" s="6"/>
       <c r="I875" s="6"/>
     </row>
-    <row r="876" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H876" s="6"/>
       <c r="I876" s="6"/>
     </row>
-    <row r="877" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H877" s="6"/>
       <c r="I877" s="6"/>
     </row>
-    <row r="878" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H878" s="6"/>
       <c r="I878" s="6"/>
     </row>
-    <row r="879" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H879" s="6"/>
       <c r="I879" s="6"/>
     </row>
-    <row r="880" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H880" s="6"/>
       <c r="I880" s="6"/>
     </row>
-    <row r="881" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H881" s="6"/>
       <c r="I881" s="6"/>
     </row>
-    <row r="882" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H882" s="6"/>
       <c r="I882" s="6"/>
     </row>
-    <row r="883" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H883" s="6"/>
       <c r="I883" s="6"/>
     </row>
-    <row r="884" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H884" s="6"/>
       <c r="I884" s="6"/>
     </row>
-    <row r="885" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H885" s="6"/>
       <c r="I885" s="6"/>
     </row>
-    <row r="886" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H886" s="6"/>
       <c r="I886" s="6"/>
     </row>
-    <row r="887" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H887" s="6"/>
       <c r="I887" s="6"/>
     </row>
-    <row r="888" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H888" s="6"/>
       <c r="I888" s="6"/>
     </row>
-    <row r="889" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H889" s="6"/>
       <c r="I889" s="6"/>
     </row>
-    <row r="890" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H890" s="6"/>
       <c r="I890" s="6"/>
     </row>
-    <row r="891" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H891" s="6"/>
       <c r="I891" s="6"/>
     </row>
-    <row r="892" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H892" s="6"/>
       <c r="I892" s="6"/>
     </row>
-    <row r="893" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H893" s="6"/>
       <c r="I893" s="6"/>
     </row>
-    <row r="894" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H894" s="6"/>
       <c r="I894" s="6"/>
     </row>
-    <row r="895" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H895" s="6"/>
       <c r="I895" s="6"/>
     </row>
-    <row r="896" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H896" s="6"/>
       <c r="I896" s="6"/>
     </row>
-    <row r="897" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H897" s="6"/>
       <c r="I897" s="6"/>
     </row>
-    <row r="898" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H898" s="6"/>
       <c r="I898" s="6"/>
     </row>
-    <row r="899" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H899" s="6"/>
       <c r="I899" s="6"/>
     </row>
-    <row r="900" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H900" s="6"/>
       <c r="I900" s="6"/>
     </row>
-    <row r="901" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H901" s="6"/>
       <c r="I901" s="6"/>
     </row>
-    <row r="902" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H902" s="6"/>
       <c r="I902" s="6"/>
     </row>
-    <row r="903" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H903" s="6"/>
       <c r="I903" s="6"/>
     </row>
-    <row r="904" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H904" s="6"/>
       <c r="I904" s="6"/>
     </row>
-    <row r="905" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H905" s="6"/>
       <c r="I905" s="6"/>
     </row>
-    <row r="906" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H906" s="6"/>
       <c r="I906" s="6"/>
     </row>
-    <row r="907" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H907" s="6"/>
       <c r="I907" s="6"/>
     </row>
-    <row r="908" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H908" s="6"/>
       <c r="I908" s="6"/>
     </row>
-    <row r="909" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H909" s="6"/>
       <c r="I909" s="6"/>
     </row>
-    <row r="910" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H910" s="6"/>
       <c r="I910" s="6"/>
     </row>
-    <row r="911" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H911" s="6"/>
       <c r="I911" s="6"/>
     </row>
-    <row r="912" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H912" s="6"/>
       <c r="I912" s="6"/>
     </row>
-    <row r="913" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H913" s="6"/>
       <c r="I913" s="6"/>
     </row>
-    <row r="914" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H914" s="6"/>
       <c r="I914" s="6"/>
     </row>
-    <row r="915" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H915" s="6"/>
       <c r="I915" s="6"/>
     </row>
-    <row r="916" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H916" s="6"/>
       <c r="I916" s="6"/>
     </row>
-    <row r="917" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H917" s="6"/>
       <c r="I917" s="6"/>
     </row>
-    <row r="918" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H918" s="6"/>
       <c r="I918" s="6"/>
     </row>
-    <row r="919" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H919" s="6"/>
       <c r="I919" s="6"/>
     </row>
-    <row r="920" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H920" s="6"/>
       <c r="I920" s="6"/>
     </row>
-    <row r="921" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H921" s="6"/>
       <c r="I921" s="6"/>
     </row>
-    <row r="922" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H922" s="6"/>
       <c r="I922" s="6"/>
     </row>
-    <row r="923" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H923" s="6"/>
       <c r="I923" s="6"/>
     </row>
-    <row r="924" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H924" s="6"/>
       <c r="I924" s="6"/>
     </row>
-    <row r="925" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H925" s="6"/>
       <c r="I925" s="6"/>
     </row>
-    <row r="926" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H926" s="6"/>
       <c r="I926" s="6"/>
     </row>
-    <row r="927" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H927" s="6"/>
       <c r="I927" s="6"/>
     </row>
-    <row r="928" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H928" s="6"/>
       <c r="I928" s="6"/>
     </row>
-    <row r="929" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H929" s="6"/>
       <c r="I929" s="6"/>
     </row>
-    <row r="930" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H930" s="6"/>
       <c r="I930" s="6"/>
     </row>
-    <row r="931" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H931" s="6"/>
       <c r="I931" s="6"/>
     </row>
-    <row r="932" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H932" s="6"/>
       <c r="I932" s="6"/>
     </row>
-    <row r="933" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H933" s="6"/>
       <c r="I933" s="6"/>
     </row>
-    <row r="934" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H934" s="6"/>
       <c r="I934" s="6"/>
     </row>
-    <row r="935" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H935" s="6"/>
       <c r="I935" s="6"/>
     </row>
-    <row r="936" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H936" s="6"/>
       <c r="I936" s="6"/>
     </row>
-    <row r="937" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H937" s="6"/>
       <c r="I937" s="6"/>
     </row>
-    <row r="938" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H938" s="6"/>
       <c r="I938" s="6"/>
     </row>
-    <row r="939" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H939" s="6"/>
       <c r="I939" s="6"/>
     </row>
-    <row r="940" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H940" s="6"/>
       <c r="I940" s="6"/>
     </row>
-    <row r="941" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H941" s="6"/>
       <c r="I941" s="6"/>
     </row>
-    <row r="942" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H942" s="6"/>
       <c r="I942" s="6"/>
     </row>
-    <row r="943" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H943" s="6"/>
       <c r="I943" s="6"/>
     </row>
-    <row r="944" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H944" s="6"/>
       <c r="I944" s="6"/>
     </row>
-    <row r="945" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H945" s="6"/>
       <c r="I945" s="6"/>
     </row>
-    <row r="946" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H946" s="6"/>
       <c r="I946" s="6"/>
     </row>
-    <row r="947" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H947" s="6"/>
       <c r="I947" s="6"/>
     </row>
-    <row r="948" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H948" s="6"/>
       <c r="I948" s="6"/>
     </row>
-    <row r="949" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H949" s="6"/>
       <c r="I949" s="6"/>
     </row>
-    <row r="950" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H950" s="6"/>
       <c r="I950" s="6"/>
     </row>
-    <row r="951" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H951" s="6"/>
       <c r="I951" s="6"/>
     </row>
-    <row r="952" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H952" s="6"/>
       <c r="I952" s="6"/>
     </row>
-    <row r="953" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H953" s="6"/>
       <c r="I953" s="6"/>
     </row>
-    <row r="954" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H954" s="6"/>
       <c r="I954" s="6"/>
     </row>
-    <row r="955" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H955" s="6"/>
       <c r="I955" s="6"/>
     </row>
-    <row r="956" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H956" s="6"/>
       <c r="I956" s="6"/>
     </row>
-    <row r="957" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H957" s="6"/>
       <c r="I957" s="6"/>
     </row>
-    <row r="958" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H958" s="6"/>
       <c r="I958" s="6"/>
     </row>
-    <row r="959" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H959" s="6"/>
       <c r="I959" s="6"/>
     </row>
-    <row r="960" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H960" s="6"/>
       <c r="I960" s="6"/>
     </row>
-    <row r="961" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H961" s="6"/>
       <c r="I961" s="6"/>
     </row>
-    <row r="962" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H962" s="6"/>
       <c r="I962" s="6"/>
     </row>
-    <row r="963" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H963" s="6"/>
       <c r="I963" s="6"/>
     </row>
-    <row r="964" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H964" s="6"/>
       <c r="I964" s="6"/>
     </row>
-    <row r="965" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H965" s="6"/>
       <c r="I965" s="6"/>
     </row>
-    <row r="966" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H966" s="6"/>
       <c r="I966" s="6"/>
     </row>
-    <row r="967" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H967" s="6"/>
       <c r="I967" s="6"/>
     </row>
-    <row r="968" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H968" s="6"/>
       <c r="I968" s="6"/>
     </row>
-    <row r="969" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H969" s="6"/>
       <c r="I969" s="6"/>
     </row>
-    <row r="970" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H970" s="6"/>
       <c r="I970" s="6"/>
     </row>
-    <row r="971" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H971" s="6"/>
       <c r="I971" s="6"/>
     </row>
-    <row r="972" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H972" s="6"/>
       <c r="I972" s="6"/>
     </row>
-    <row r="973" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H973" s="6"/>
       <c r="I973" s="6"/>
     </row>
-    <row r="974" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H974" s="6"/>
       <c r="I974" s="6"/>
     </row>
-    <row r="975" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H975" s="6"/>
       <c r="I975" s="6"/>
     </row>
-    <row r="976" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H976" s="6"/>
       <c r="I976" s="6"/>
     </row>
-    <row r="977" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H977" s="6"/>
       <c r="I977" s="6"/>
     </row>
-    <row r="978" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H978" s="6"/>
       <c r="I978" s="6"/>
     </row>
-    <row r="979" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H979" s="6"/>
       <c r="I979" s="6"/>
     </row>
-    <row r="980" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H980" s="6"/>
       <c r="I980" s="6"/>
     </row>
-    <row r="981" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H981" s="6"/>
       <c r="I981" s="6"/>
     </row>
-    <row r="982" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H982" s="6"/>
       <c r="I982" s="6"/>
     </row>
-    <row r="983" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H983" s="6"/>
       <c r="I983" s="6"/>
     </row>
-    <row r="984" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H984" s="6"/>
       <c r="I984" s="6"/>
     </row>
-    <row r="985" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H985" s="6"/>
       <c r="I985" s="6"/>
     </row>
-    <row r="986" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H986" s="6"/>
       <c r="I986" s="6"/>
     </row>
-    <row r="987" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H987" s="6"/>
       <c r="I987" s="6"/>
     </row>
-    <row r="988" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H988" s="6"/>
       <c r="I988" s="6"/>
     </row>
-    <row r="989" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H989" s="6"/>
       <c r="I989" s="6"/>
     </row>
-    <row r="990" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H990" s="6"/>
       <c r="I990" s="6"/>
     </row>
-    <row r="991" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H991" s="6"/>
       <c r="I991" s="6"/>
     </row>
-    <row r="992" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H992" s="6"/>
       <c r="I992" s="6"/>
     </row>
-    <row r="993" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H993" s="6"/>
       <c r="I993" s="6"/>
     </row>
-    <row r="994" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H994" s="6"/>
       <c r="I994" s="6"/>
     </row>
-    <row r="995" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H995" s="6"/>
       <c r="I995" s="6"/>
     </row>
-    <row r="996" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H996" s="6"/>
       <c r="I996" s="6"/>
     </row>
-    <row r="997" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H997" s="6"/>
       <c r="I997" s="6"/>
     </row>
-    <row r="998" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H998" s="6"/>
       <c r="I998" s="6"/>
     </row>
-    <row r="999" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H999" s="6"/>
       <c r="I999" s="6"/>
     </row>
-    <row r="1000" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H1000" s="6"/>
       <c r="I1000" s="6"/>
     </row>
-    <row r="1001" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H1001" s="6"/>
       <c r="I1001" s="6"/>
     </row>
-    <row r="1002" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H1002" s="6"/>
       <c r="I1002" s="6"/>
     </row>
-    <row r="1003" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H1003" s="6"/>
       <c r="I1003" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1003"/>
   <sortState ref="A2:G1003">
     <sortCondition ref="B2:B1003"/>
     <sortCondition ref="C2:C1003"/>
